--- a/biology/Botanique/Forêt_rare_de_la_Rivière-Sainte-Marguerite/Forêt_rare_de_la_Rivière-Sainte-Marguerite.xlsx
+++ b/biology/Botanique/Forêt_rare_de_la_Rivière-Sainte-Marguerite/Forêt_rare_de_la_Rivière-Sainte-Marguerite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_rare_de_la_Rivi%C3%A8re-Sainte-Marguerite</t>
+          <t>Forêt_rare_de_la_Rivière-Sainte-Marguerite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt rare de la Rivière-Sainte-Marguerite est un écosystème forestier exceptionnel situé à Mont-Valin au Québec (Canada). Cette aire protégée de 19 ha protège une bétulaie jaune à frêne noir, qui est exceptionnelle du fait de la présence de  frêne noir, auquel s'associe l'orme d'Amérique, les deux étant à la limite nord de leurs répartitions. Du plus cette forêt est peu touchée par la maladie hollandaise de l'orme. Elle est située dans la réserve aquatique de la Vallée-de-la-Rivière-Sainte-Marguerite.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_rare_de_la_Rivi%C3%A8re-Sainte-Marguerite</t>
+          <t>Forêt_rare_de_la_Rivière-Sainte-Marguerite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt rare de la Rivière-Sainte-Marguerite doit son nom à la rivière Sainte-Marguerite, qui est située à proximité[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt rare de la Rivière-Sainte-Marguerite doit son nom à la rivière Sainte-Marguerite, qui est située à proximité.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_rare_de_la_Rivi%C3%A8re-Sainte-Marguerite</t>
+          <t>Forêt_rare_de_la_Rivière-Sainte-Marguerite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt rare de la Rivière-Sainte-Marguerite est située à 50 km à l'est de La Baie, dans le territoire non-organisé de Mont-Valin[2],[1]. Elle est située dans le fond de la vallée dans un terrain fréquemment inondé par les crues de la rivière. Le sol y est cependant très riche du fait de l'apport de sédiment. Le frêne noir et l'orme d'Amérique sont les essences les mieux adaptées à ces conditions particulières[2].
-La forêt est localisée dans la réserve aquatique de la Vallée-de-la-Rivière-Sainte-Marguerite[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt rare de la Rivière-Sainte-Marguerite est située à 50 km à l'est de La Baie, dans le territoire non-organisé de Mont-Valin,. Elle est située dans le fond de la vallée dans un terrain fréquemment inondé par les crues de la rivière. Le sol y est cependant très riche du fait de l'apport de sédiment. Le frêne noir et l'orme d'Amérique sont les essences les mieux adaptées à ces conditions particulières.
+La forêt est localisée dans la réserve aquatique de la Vallée-de-la-Rivière-Sainte-Marguerite.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_rare_de_la_Rivi%C3%A8re-Sainte-Marguerite</t>
+          <t>Forêt_rare_de_la_Rivière-Sainte-Marguerite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt rare de la Rivière-Sainte-Marguerite a été classée comme écosystème forestier exceptionnel en 2002 par le ministère des Ressources naturelles[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt rare de la Rivière-Sainte-Marguerite a été classée comme écosystème forestier exceptionnel en 2002 par le ministère des Ressources naturelles.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_rare_de_la_Rivi%C3%A8re-Sainte-Marguerite</t>
+          <t>Forêt_rare_de_la_Rivière-Sainte-Marguerite</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt rare de la Rivière-Sainte-Marguerite est dominée par le bouleau jaune (Betula alleghaniensis) du fait des sols profonds et du climat plutôt clément. L'orme d'Amérique (Ulmus americana) quoique peu nombreux, donne à cette forêt ses plus grands arbres : certains individus font 28 m de haut et ont un tronc de 70 cm. On y rencontre aussi le frêne noir (Fraxinus nigra) et le sapin baumier (Abies balsamea) en abondance. On y rencontre plus occasionnellement le bouleau à papier (Betula papyrifera), le peuplier baumier (Populus balsamifera) et le peuplier faux-tremble (Populus tremuloides). Le frêne, le sapin et le bouleau jaune semble se régénérer efficacement. Quant à l'orme, on ne retrouve que quelques tiges, signe inquiétant pour la perpétuation de l'espèce[2].
-Parmi la strate herbacée, on rencontre la ronce pubescente (Rubus pubescens), le trille rouge (Trillium erectum) et l'athyrie fougère-femelle (Athyrium filix-femina). On y rencontre aussi des espèces normalement associées aux érablières, comme la sanguinaire du Canada (Sanguinaria canadensis), l'athyrie fausse-thélyptère (Deparia acrostichoides), la smilacine à grappes (Maianthemum racemosum), l'actée à gros pédicelles (Actaea pachypoda) et la dentaire à deux feuilles (Cardamine diphylla)[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt rare de la Rivière-Sainte-Marguerite est dominée par le bouleau jaune (Betula alleghaniensis) du fait des sols profonds et du climat plutôt clément. L'orme d'Amérique (Ulmus americana) quoique peu nombreux, donne à cette forêt ses plus grands arbres : certains individus font 28 m de haut et ont un tronc de 70 cm. On y rencontre aussi le frêne noir (Fraxinus nigra) et le sapin baumier (Abies balsamea) en abondance. On y rencontre plus occasionnellement le bouleau à papier (Betula papyrifera), le peuplier baumier (Populus balsamifera) et le peuplier faux-tremble (Populus tremuloides). Le frêne, le sapin et le bouleau jaune semble se régénérer efficacement. Quant à l'orme, on ne retrouve que quelques tiges, signe inquiétant pour la perpétuation de l'espèce.
+Parmi la strate herbacée, on rencontre la ronce pubescente (Rubus pubescens), le trille rouge (Trillium erectum) et l'athyrie fougère-femelle (Athyrium filix-femina). On y rencontre aussi des espèces normalement associées aux érablières, comme la sanguinaire du Canada (Sanguinaria canadensis), l'athyrie fausse-thélyptère (Deparia acrostichoides), la smilacine à grappes (Maianthemum racemosum), l'actée à gros pédicelles (Actaea pachypoda) et la dentaire à deux feuilles (Cardamine diphylla).
 </t>
         </is>
       </c>
